--- a/coringa filme.xlsx
+++ b/coringa filme.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="551">
   <si>
     <t>Treinamento</t>
   </si>
@@ -91,10 +91,10 @@
     <t>gente toda semana sai anúncio de um batman novo um coringa novo... maaaanoooo faz filme de outra coiiisaaaaaa tem tanta hq boaaaa!</t>
   </si>
   <si>
+    <t>quero ver o filme do coringa denovo, e muito bom meno</t>
+  </si>
+  <si>
     <t>eu preciso ver o filme do coringa mnr</t>
-  </si>
-  <si>
-    <t>quero ver o filme do coringa denovo, e muito bom meno</t>
   </si>
   <si>
     <t>rt @dbenezz: @lanseis @cenasfoda https://t.co/78jczxo8dt
@@ -123,10 +123,10 @@
     <t>agr q eu vi o filme do coringa, só amei</t>
   </si>
   <si>
+    <t>dica de filme: "coringa". isolado, intimidado e desconsiderado pela sociedade, o fracassado comediante arthur fleck inicia seu caminho como uma mente criminosa após assassinar três homens em pleno metrô. sua ação inicia um movimento popular contra a elite de gotham city. https://t.co/mwal1jqngq</t>
+  </si>
+  <si>
     <t>pq eu demorei tanto p assistir coringa? vsf filme perfeito</t>
-  </si>
-  <si>
-    <t>dica de filme: "coringa". isolado, intimidado e desconsiderado pela sociedade, o fracassado comediante arthur fleck inicia seu caminho como uma mente criminosa após assassinar três homens em pleno metrô. sua ação inicia um movimento popular contra a elite de gotham city. https://t.co/mwal1jqngq</t>
   </si>
   <si>
     <t>rt @centraldanacao: aquele novo filme da dc
@@ -161,6 +161,9 @@
     <t>eu sei que todo mundo viu coringa a muito tempo mas preciso falar caralho que filme perfeito</t>
   </si>
   <si>
+    <t>assistindo agora o filme coringa</t>
+  </si>
+  <si>
     <t>@_dcbrasil esse filme é tipo uma viagem de lsd, colorido, divertido e te faz se sentir numa festa
 com essa trilha sonora puta que paril 
 to 100% emancipado 
@@ -169,9 +172,6 @@
 #birdsofprey</t>
   </si>
   <si>
-    <t>assistindo agora o filme coringa</t>
-  </si>
-  <si>
     <t>coringa eh um filme mto doido</t>
   </si>
   <si>
@@ -264,12 +264,6 @@
   </si>
   <si>
     <t>@emanuelmm93 @wagnerthomazoni eu fui chamado de machista e gado por falar num post do filme da alerquina,chamei ela de muie do coringa e ainda falei que era melhor ir ver sonic</t>
-  </si>
-  <si>
-    <t>batman participando do filme do thor e coringa participando do universo aranha sendo morbius gente que mundo paralelo é esse</t>
-  </si>
-  <si>
-    <t>rt @pedreliasss: foi assim q o filme do coringa começou daqui a pouco ta ai o milkshake do bobs matando danilo gentili ao vivo</t>
   </si>
   <si>
     <t>essa parte fez referência ao filme coringa 
@@ -278,6 +272,12 @@
 #itzy_itzme https://t.co/yoxdkzfcsc</t>
   </si>
   <si>
+    <t>rt @pedreliasss: foi assim q o filme do coringa começou daqui a pouco ta ai o milkshake do bobs matando danilo gentili ao vivo</t>
+  </si>
+  <si>
+    <t>batman participando do filme do thor e coringa participando do universo aranha sendo morbius gente que mundo paralelo é esse</t>
+  </si>
+  <si>
     <t>rt @terraverso: e o quadro “o menino azul” de 1770, obra do pintor thomas gainsborough, que aparece no filme "batman" de (1989) e em "corin…</t>
   </si>
   <si>
@@ -330,9 +330,6 @@
     <t>coringa e muito doido kkkkkkkk adorei esse filme</t>
   </si>
   <si>
-    <t>acabei de ver parasita e não acredito que o coringa perdeu o oscar pra esse filme sinceramente</t>
-  </si>
-  <si>
     <t>não é por nada não, mas no filme do coringa isso também acontece... https://t.co/2sbpa2mv5y</t>
   </si>
   <si>
@@ -371,10 +368,10 @@
     <t>mano, coringa é um filme muito depressivo</t>
   </si>
   <si>
+    <t>@kevim17730203 @leonmoraes_ o foda é que no filme aves de rapina a arlequina larga o coringa e se torna uma mulher empoderada,amo?!?</t>
+  </si>
+  <si>
     <t>vou ver esse filme do coringa, comprar besteiras e fé</t>
-  </si>
-  <si>
-    <t>@kevim17730203 @leonmoraes_ o foda é que no filme aves de rapina a arlequina larga o coringa e se torna uma mulher empoderada,amo?!?</t>
   </si>
   <si>
     <t>rt @phdotexe: eu deveria estar escrevendo um artigo, mas ai eu tava pensando coisas sobre o filme do coronga e resolvi escrever, ta aí pra…</t>
@@ -390,13 +387,13 @@
 o fator social de pobreza, desconhecimento do pai,profissão da mãe,criação pela avó,prostituição para emancipação economica e depressão com revolta levando à solidão:nem o filme coringa empata!</t>
   </si>
   <si>
+    <t>#coringa marcou 2019 inovando e conquistando muitos prêmios! mas e vocês, gostaram do filme? comentem aí! ♥️👍😆 https://t.co/ub4fzp36gh</t>
+  </si>
+  <si>
+    <t>@__ryoasuka__ se o anão morresse eu ia ficar triste. o coringa matou aquela mulher lá? n entendi essa parte do filme</t>
+  </si>
+  <si>
     <t>esse filme do #coringa em 4k é de mais</t>
-  </si>
-  <si>
-    <t>#coringa marcou 2019 inovando e conquistando muitos prêmios! mas e vocês, gostaram do filme? comentem aí! ♥️👍😆 https://t.co/ub4fzp36gh</t>
-  </si>
-  <si>
-    <t>@__ryoasuka__ se o anão morresse eu ia ficar triste. o coringa matou aquela mulher lá? n entendi essa parte do filme</t>
   </si>
   <si>
     <t>faltando só adoráveis mulheres pra terminar de ver todos os indicados ao oscar de melhor filme, segue a classificação segundo meu gosto
@@ -413,13 +410,13 @@
     <t>vendo coringa acho que meu coração sai andando até antes do final do filme</t>
   </si>
   <si>
+    <t>coringa filme fodaaaaaa, amei real man</t>
+  </si>
+  <si>
     <t>acabei de ver coringa 
 que filme maravilhoso</t>
   </si>
   <si>
-    <t>coringa filme fodaaaaaa, amei real man</t>
-  </si>
-  <si>
     <t>rt @biancallu: seria tudo pra mim o johnny depp voltando com piratas do caribe, sendo o coringa no filme do batman e ganhando oscar por iss…</t>
   </si>
   <si>
@@ -448,10 +445,6 @@
   </si>
   <si>
     <t>fiquei cheia de ódio disso e me lembrei do coringa, quem viu o filme pegou a referência https://t.co/ian8gerryu</t>
-  </si>
-  <si>
-    <t>a minha nota pro filme coringa em relação ao mito da caverna é: 8,5 
-poderia muito bem dar nota 10, porém achei a história do filme meio sem contexto e não gosto de palhaço</t>
   </si>
   <si>
     <t>isso me lembrou muito o filme do coringa pqp
@@ -459,6 +452,10 @@
 o ser humano é mais desumano que qualquer outro ser https://t.co/ufmht4mexu</t>
   </si>
   <si>
+    <t>a minha nota pro filme coringa em relação ao mito da caverna é: 8,5 
+poderia muito bem dar nota 10, porém achei a história do filme meio sem contexto e não gosto de palhaço</t>
+  </si>
+  <si>
     <t>assisti o filme parasita, percebi que a mensagem do longa metragem é parecida com o coringa, ambas as sociedades estão doentes, provando excitações nas pessoas a ponto de cometeram atos que eles mesmo não querem cometer</t>
   </si>
   <si>
@@ -514,10 +511,10 @@
     <t>acabei de assistir coringa, pela primeira vez. que filme top, que trilha sonora foda!!!</t>
   </si>
   <si>
+    <t>puta filme gatilho o  do coringa</t>
+  </si>
+  <si>
     <t>rt @aratuonline: filme "coringa" será exibido gratuitamente nesta quarta em salvador. saiba mais: https://t.co/pv4et8nmy8 https://t.co/djxd…</t>
-  </si>
-  <si>
-    <t>puta filme gatilho o  do coringa</t>
   </si>
   <si>
     <t>rt @centraldcnauta: coringa é agora o 4° filme dc de maior bilheteria de todos os tempos no mercado dos eua. 
@@ -536,10 +533,10 @@
     <t>não vejo a hora de ter coringa na netflix pra eu poder assistir esse filme mil vezes por dia</t>
   </si>
   <si>
+    <t>é normal ter pena do coringa nesse último filme?</t>
+  </si>
+  <si>
     <t>@thug_aqw lek, a bilheteria de joker só nos eua vai ser maior doq a bilheteria global do filme da muié do coringa, eu não tô tankando não skskskks</t>
-  </si>
-  <si>
-    <t>é normal ter pena do coringa nesse último filme?</t>
   </si>
   <si>
     <t>bresqui me mostrou o vídeo do filme do coringa e deu ate sdd</t>
@@ -580,10 +577,10 @@
 se ele não for com alguém muito forte pro paredão, acho que ele tem boas chances de chegar lá</t>
   </si>
   <si>
+    <t>assisti o filme “esquadrão suicida” hoje, e acho a história da alerquina e coringa muito foda ❤️</t>
+  </si>
+  <si>
     <t>isso foi tipo o coringa entrando na geladeira no arco final do filme https://t.co/bzh7jigwbn</t>
-  </si>
-  <si>
-    <t>assisti o filme “esquadrão suicida” hoje, e acho a história da alerquina e coringa muito foda ❤️</t>
   </si>
   <si>
     <t>o que dizer né, a menina tem 1.10m de altura, eh linda e vive me dando vácuos e etc, temos que ver o filme do sonic e o da menina do coringa la, t amo viu? to cm sdd viu</t>
@@ -637,13 +634,13 @@
     <t>me perguntaram se eu pudesse interpretar um personagem de filme ou serie,qual eu escolheria,bom eu não faço a menor ideia de qual escolheria,mas não queria ser o mocinho e vocês quem escolheriam? talvez eu escolheria dean,coringa,constantine ou chapeleiro maluco 😋</t>
   </si>
   <si>
+    <t>filme do coringa e brabo mane</t>
+  </si>
+  <si>
     <t>momento crítico de cinema: o filme da mulher do coringa é o deadpool da dc. uma comédia ácida e exagerada, com momentos genuinamente engraçados porém com vários momentos superforçados, e meio exagerado de palavrões pra causar humor o q traz o efeito contrário, pelo menos pra mim</t>
   </si>
   <si>
     <t>assistindo coringa so que so consigo pensar na merda que a internet fez com esse filme</t>
-  </si>
-  <si>
-    <t>filme do coringa e brabo mane</t>
   </si>
   <si>
     <t>determinado a achar o filme do coringa na net e ver.</t>
@@ -656,11 +653,11 @@
     <t>assistindo o filme do #coringa</t>
   </si>
   <si>
+    <t>@yagoagain @paraisomaria_ urgente: "pessoas estão sendo influenciadas pelas cenas iniciais do filme coringa e cometendo agressões contra divulgadores em ruas brasileiras"! essas serão as manchetes.</t>
+  </si>
+  <si>
     <t>rapaziada, tem filme disponível no xvideos 
 ex: coringa, shazan entre outros</t>
-  </si>
-  <si>
-    <t>@yagoagain @paraisomaria_ urgente: "pessoas estão sendo influenciadas pelas cenas iniciais do filme coringa e cometendo agressões contra divulgadores em ruas brasileiras"! essas serão as manchetes.</t>
   </si>
   <si>
     <t>assisti o filme do coringa..</t>
@@ -669,12 +666,6 @@
     <t>aclamado demais! 
 coringa ganhou no considerado "oscar japonês" o prêmio de melhor filme estrangeiro.
 #joker🃏 está disponível em dvd e blu-ray. https://t.co/0gzvxxicu9</t>
-  </si>
-  <si>
-    <t>@heiiago igual sobre o filme do coringa</t>
-  </si>
-  <si>
-    <t>queria um filme assim sobre o batman crescendo com o trauma de ter perdido os pais dessa forma. e depois outro sobre esse coringa e o batman</t>
   </si>
   <si>
     <t>título: joker
@@ -684,6 +675,12 @@
 #prior #teamprior @felipeprior @portalprior https://t.co/heddbzu908</t>
   </si>
   <si>
+    <t>queria um filme assim sobre o batman crescendo com o trauma de ter perdido os pais dessa forma. e depois outro sobre esse coringa e o batman</t>
+  </si>
+  <si>
+    <t>@heiiago igual sobre o filme do coringa</t>
+  </si>
+  <si>
     <t>ontem eu vi coringa e passei o filme todo angustiada mas mt bom</t>
   </si>
   <si>
@@ -713,14 +710,14 @@
   </si>
   <si>
     <t>@plebeumg me lembro do filme coringa.</t>
-  </si>
-  <si>
-    <t>pensando em como vou fzr uma resenha do filme “o coringa” se eu tenho fobia de palhaço👍🏼👍🏼👍🏼</t>
   </si>
   <si>
     <t>@alexsantosn @marcogomes ée man, tendo a pensar por ai. é tipo quando saiu o coringa e as pessoas começar achar irresponsável um filme tão violento hoje em dia.
 o joaquin falou, q o filme ñ pode carregar uma responsabilidade moral de ensinar oq as pessoas devem ou ñ fazer.
 enfim, to aberto a discussão</t>
+  </si>
+  <si>
+    <t>pensando em como vou fzr uma resenha do filme “o coringa” se eu tenho fobia de palhaço👍🏼👍🏼👍🏼</t>
   </si>
   <si>
     <t>depois de muito tempo consegui assistir o coringa, e que filme perfeito</t>
@@ -760,22 +757,22 @@
 kayan: kkkkkkkkkkllll</t>
   </si>
   <si>
+    <t>o filme do coringa né ruim não, pra chegar no nível ruim, ele teria q melhorar muito!!!</t>
+  </si>
+  <si>
     <t>talvez o jhonny deep seja o novo coringa do filme batman!! pqp se isso rolar...</t>
   </si>
   <si>
-    <t>o filme do coringa né ruim não, pra chegar no nível ruim, ele teria q melhorar muito!!!</t>
+    <t>johnny depp como coringa seria muitooooo tesao, só tá meio velho pra fazer o novo filme do batman</t>
   </si>
   <si>
     <t>@cyrusanatomy @wandacvnt @matosalss @waynnibal não to dizendo que ela não fez sucesso, mas vocês forcarem que o sucesso do filme se deve a ela? um filme com batman,coringa, will smith..se ela fosse tão poderosa e popular, novamente, bop teria sido um sucesso..</t>
   </si>
   <si>
-    <t>johnny depp como coringa seria muitooooo tesao, só tá meio velho pra fazer o novo filme do batman</t>
+    <t>coringa no final do filme https://t.co/9gn74baz1u</t>
   </si>
   <si>
     <t>coringa no fim do filme https://t.co/kosasulxb9</t>
-  </si>
-  <si>
-    <t>coringa no final do filme https://t.co/9gn74baz1u</t>
   </si>
   <si>
     <t>jessé reproduz em palavras o que pensamos
@@ -844,12 +841,6 @@
   </si>
   <si>
     <t>rt @sitepopoca: sucesso de ‘coringa’ facilita novo filme do spawn https://t.co/1io5il5ecb https://t.co/nft89kpghe</t>
-  </si>
-  <si>
-    <t>@leo100acento @beahhh__ @7horass @j_sacarose @craumper @to33yq @nerdboomer eu não falei que o filme é ruim.
-eu nem posso falar isso pq eu não assisti.
-eu disse que a arlequina é sem graça sem o coringa.
-ela só ficou maneira sem ele na saga injustice, que o coringa morre e ela passa pro lado do batman</t>
   </si>
   <si>
     <t>#35 birds of prey (2020)
@@ -859,11 +850,17 @@
 #52moviesbywomen (9/52) https://t.co/actfqjbsjf</t>
   </si>
   <si>
+    <t>@vacavoadora1 @beahhh__ @7horass @j_sacarose @craumper @to33yq @nerdboomer então assista ao filme. e mesmo se ela for sem graça sem o coringa, e apesar de ser apenas uma personagem, é bom só falar arlequina mesmo</t>
+  </si>
+  <si>
     <t>como "coringa" ajudou o novo filme do spawn a acontecer:
 https://t.co/cywhrwrb7f</t>
   </si>
   <si>
-    <t>@vacavoadora1 @beahhh__ @7horass @j_sacarose @craumper @to33yq @nerdboomer então assista ao filme. e mesmo se ela for sem graça sem o coringa, e apesar de ser apenas uma personagem, é bom só falar arlequina mesmo</t>
+    <t>@leo100acento @beahhh__ @7horass @j_sacarose @craumper @to33yq @nerdboomer eu não falei que o filme é ruim.
+eu nem posso falar isso pq eu não assisti.
+eu disse que a arlequina é sem graça sem o coringa.
+ela só ficou maneira sem ele na saga injustice, que o coringa morre e ela passa pro lado do batman</t>
   </si>
   <si>
     <t>@wndflowerr e eu que li coringa e achei q vc tinha assistido o filme</t>
@@ -929,17 +926,17 @@
     <t>coringa é um puta filme, adorei 🤩</t>
   </si>
   <si>
+    <t>minha cunhada agora fica postando trecho do filme do coringa no status do zap, deus ajude essa alma</t>
+  </si>
+  <si>
+    <t>hj eu vi que realmente meninas n tem como confiar no tal do homem. um menino muito lindinho na sala hoje. falou mal de parasita sendo q nem assistiu e ainda disse que coringa é o melhor filme já feito.</t>
+  </si>
+  <si>
     <t>filme parasita, coringa,, muito violentos, o primeiro 
  família pobre enganando família rica.acho coringa melhor,. parasita se perde um pouco no final.*professor" leva duas pedradas na cabeça e sai sorrindo.piada.entre outros problemas.</t>
   </si>
   <si>
-    <t>minha cunhada agora fica postando trecho do filme do coringa no status do zap, deus ajude essa alma</t>
-  </si>
-  <si>
     <t>@crushdobbb20 @alvarengajuhh @dantinhas é a msm coisa que o coringa morrer no começo do filme do batman, ngm nem vai querer mais assistir</t>
-  </si>
-  <si>
-    <t>hj eu vi que realmente meninas n tem como confiar no tal do homem. um menino muito lindinho na sala hoje. falou mal de parasita sendo q nem assistiu e ainda disse que coringa é o melhor filme já feito.</t>
   </si>
   <si>
     <t>droga que preciso terminar de assistir o filme da mulher do coringa ainda</t>
@@ -977,12 +974,12 @@
     <t>tipo filme do coringa, o cara só tava trabalhando mano, que cz https://t.co/xytknjpjug</t>
   </si>
   <si>
+    <t>quase chorei igual no filme do coringa https://t.co/tzb0as1iuw</t>
+  </si>
+  <si>
     <t>eh matheus coringa....... eu também cansei de ser coadjuvante em filme triste</t>
   </si>
   <si>
-    <t>quase chorei igual no filme do coringa https://t.co/tzb0as1iuw</t>
-  </si>
-  <si>
     <t>uma colega minha viu o filme e disse q a harley foi super incensivel com q casandra nessa cena mais mano durante o tempo em que a harley ficou com o coringa ela nunca foi tratada co amor e respeito ent esse afeto e algo bem novo pra ela https://t.co/wzm9j4ry9a</t>
   </si>
   <si>
@@ -999,19 +996,19 @@
   </si>
   <si>
     <t>coringa sempre quis ver esse filme</t>
-  </si>
-  <si>
-    <t>filme do coringa https://t.co/5ekrf8blem</t>
-  </si>
-  <si>
-    <t>rt @joaoguiavila: acabei de assistir “aves de rapina”, o filme da muié do coringa sabe? mei blé</t>
-  </si>
-  <si>
-    <t>tô vendo o coringa de novo, que filme foda, meu deus</t>
   </si>
   <si>
     <t>é tipo o filme do coringa, nós somos resultado de tudo que acontece na nossa vida, relações, escolhas, conquistas, frustrações, sentimentos, decepções, você se torna o resultado do que fez "da e na sua vida"!
 não consigo nem me apegar, se apaixonar então👎🏼</t>
+  </si>
+  <si>
+    <t>filme do coringa https://t.co/5ekrf8blem</t>
+  </si>
+  <si>
+    <t>tô vendo o coringa de novo, que filme foda, meu deus</t>
+  </si>
+  <si>
+    <t>rt @joaoguiavila: acabei de assistir “aves de rapina”, o filme da muié do coringa sabe? mei blé</t>
   </si>
   <si>
     <t>@ramosluh_ amiga em todos os filmes colocam arlequina como uma retardada sempre salva pelo coringa, sendo que na real ela que é inteligente p crl e nesse filme mostra ela pós término, igualzinho as mina quando larga embuste pqp</t>
@@ -1041,9 +1038,6 @@
 o orçamento dele foi…</t>
   </si>
   <si>
-    <t>Teste</t>
-  </si>
-  <si>
     <t>“ah eu assisti o filme do coringa no xvideos” eu: só acredito vendo, eu vendo: não acredito https://t.co/tdvxhlqxfk</t>
   </si>
   <si>
@@ -1070,9 +1064,6 @@
   </si>
   <si>
     <t>@vacavoadora1 @leo100acento @7horass @j_sacarose @craumper @to33yq @nerdboomer curti o filme dela mas msm assim nem me importa qdo falam mal ou chamam de muié do coringa</t>
-  </si>
-  <si>
-    <t>@chupameunabo é tipo o coringa apanhando vestido de palhaço no começo do filme</t>
   </si>
   <si>
     <t>rt @olavoopressor: o "coringa" é um psicopata assassino que no fim, meio em sonhos, meio na realidade, vira ídolo dos comunistas. o filme é…</t>
@@ -1081,6 +1072,9 @@
     <t>@salocin_reuter uau
 eu tambem me identifico com o joker (coringa) do filme joker(coringa)(2019)
 mas eu acho que na verdade tu nao entendeu joker (coringa) (2019)</t>
+  </si>
+  <si>
+    <t>@chupameunabo é tipo o coringa apanhando vestido de palhaço no começo do filme</t>
   </si>
   <si>
     <t>renato russo, coringa e o fascismo cotidiano. como russo antecipou a crítica política presente no filme coringa (2019) ao gravar a canção send in the clowns. https://t.co/n1bez2klcn https://t.co/hwz9redd3h</t>
@@ -1095,11 +1089,11 @@
 assistam</t>
   </si>
   <si>
-    <t>filme de hj com a mãe. coringa. nuh . topissimo. além da atuação. phoenix não decepciona nunca.</t>
-  </si>
-  <si>
     <t>pra quem nao sabe o coringa foi o primeiro filme do cinema sem efeitos 3d, revolucionou a setima arte
 o orçamento dele foi de 132 reais, o joaquin phoenix aceitou fazer o papel por 2 março de marlboro red https://t.co/3apxcikdqn</t>
+  </si>
+  <si>
+    <t>filme de hj com a mãe. coringa. nuh . topissimo. além da atuação. phoenix não decepciona nunca.</t>
   </si>
   <si>
     <t>só eu que lembrei do filme do coringa? 🤔😞🤦🏻‍♂️ https://t.co/j5gf07wkw8</t>
@@ -1156,10 +1150,10 @@
     <t>esse filme do coringa é muito booom pqp</t>
   </si>
   <si>
+    <t>vcs assistiram o filme da mulher do coringa ?!</t>
+  </si>
+  <si>
     <t>@felipeajv eh propaganda p divulgar o filme do coringa</t>
-  </si>
-  <si>
-    <t>vcs assistiram o filme da mulher do coringa ?!</t>
   </si>
   <si>
     <t>perdi o sono por causa desse filme do coringa... que medo eu tenho de surtar um dia 😱😱😱😱😱</t>
@@ -1185,6 +1179,10 @@
   </si>
   <si>
     <t>@igoraraujojj sabe o filme do coringa, pós bem, esse foi um teste de como fazer as pessoas se comoverem cum psicopata. muitas pessoas me falaram que sentiram penas, apesar do crimes dele. o que foi feito no fantástico foi na mesma linha,porém, em grande escala, e pegando algumas pessoas.</t>
+  </si>
+  <si>
+    <t>@thebotyone a minha opinão do pq eu não goxtei do filme: aves de ra...
+da muié do coringa</t>
   </si>
   <si>
     <t>minha melhor amiga acaba de me dizer que viu o filme do coringa e odiou, a minha sensação de alma gêmea sobre essa mulher acabou aqui.</t>
@@ -1231,16 +1229,16 @@
     <t>@9h29min aqui o corona vírus virou "coronga vírus" por causa do filme do coringa....</t>
   </si>
   <si>
+    <t>o filme coringa é tão bom, uma puta crítica social. aguardem o tema da semana no blog</t>
+  </si>
+  <si>
+    <t>eu vou ter que assistir coringa de novo esse finde p eu ter certeza da minha opinião sobre o filme</t>
+  </si>
+  <si>
+    <t>@dcucomics só consigo me lembrar do filme do coringa</t>
+  </si>
+  <si>
     <t>a militância não conseguiu salvar o filme da muié do coringa e nem sequer conseguiu quebrar uma única empresa com boicote mas tem político achando que vai conseguir se eleger adulando militante.</t>
-  </si>
-  <si>
-    <t>eu vou ter que assistir coringa de novo esse finde p eu ter certeza da minha opinião sobre o filme</t>
-  </si>
-  <si>
-    <t>@dcucomics só consigo me lembrar do filme do coringa</t>
-  </si>
-  <si>
-    <t>o filme coringa é tão bom, uma puta crítica social. aguardem o tema da semana no blog</t>
   </si>
   <si>
     <t>assisti coringa na faculdade e pqp que filme emmmmmm</t>
@@ -1286,10 +1284,10 @@
     <t>@flugel_ana hahaha siim. eu racho com alguns efeitos desse filme hahaha e na cena que o coringa mata o cara rico lá</t>
   </si>
   <si>
+    <t>vc tá dboa e do nada lembra da dublagem do gigante leo no filme do coringa e pqp kkkkkk muito boa essa cena</t>
+  </si>
+  <si>
     <t>rt @thecarolsworlds: @edusavordelli @violadearame @marpetrucelli @haddad_fernando fio, não é aberta a qualquer faixa etária. sempre tem avi…</t>
-  </si>
-  <si>
-    <t>vc tá dboa e do nada lembra da dublagem do gigante leo no filme do coringa e pqp kkkkkk muito boa essa cena</t>
   </si>
   <si>
     <t>• birds of prey: and the fantabulous emancipation of one harley quinn •
@@ -1376,23 +1374,23 @@
     <t>coringa é o melhor filme e a minha opinião basta</t>
   </si>
   <si>
+    <t>o filme coringa é muito baseado em fatos reais, olha que triste isso https://t.co/ptcku0rhrq</t>
+  </si>
+  <si>
+    <t>preciso assistir coringa de novo vey, faz um tempinho já que assisti pela última vez... filme lendario d+ macho</t>
+  </si>
+  <si>
     <t>era uma vez .... vai tomar no cu q filme foda primera vez q eu vejo</t>
   </si>
   <si>
     <t>so lembrei daquela parte do filme do coringa https://t.co/cgvv3zijgw</t>
   </si>
   <si>
-    <t>o filme coringa é muito baseado em fatos reais, olha que triste isso https://t.co/ptcku0rhrq</t>
-  </si>
-  <si>
-    <t>preciso assistir coringa de novo vey, faz um tempinho já que assisti pela última vez... filme lendario d+ macho</t>
+    <t>Teste</t>
   </si>
   <si>
     <t>mano???
 parece o início do filme do coringa https://t.co/h50rqojmh9</t>
-  </si>
-  <si>
-    <t>filme do coringa é muito brabo</t>
   </si>
   <si>
     <t>a minha cena preferida no filme coringa é exatamente a do metrô. https://t.co/vop0zf2mnx</t>
@@ -1523,14 +1521,14 @@
     <t>queria ver o filme do coringa, porém tenho medo! 😫🤡</t>
   </si>
   <si>
-    <t>space jam 2 - [rumor] imagens supostamente vazadas mostram coringa, máskara e pennywise como os vilões do filme. https://t.co/iolepje3bf https://t.co/50rukuujx4</t>
-  </si>
-  <si>
     <t>rt @dcupdatebr: tudo na dc é na base da aclamação e sucesso. 
 o filme coringa  entrou no 'guinness world record' por ser o 1.º filme da hi…</t>
   </si>
   <si>
     <t>@carloscezarcjr faz lembrar o filme “coringa” querem  transformar um bandido numa vítima da sociedade.</t>
+  </si>
+  <si>
+    <t>space jam 2 - [rumor] imagens supostamente vazadas mostram coringa, máskara e pennywise como os vilões do filme. https://t.co/iolepje3bf https://t.co/50rukuujx4</t>
   </si>
   <si>
     <t>novela da globo faz surpreendente alusão ao filme coringa https://t.co/yibgoxyvq6</t>
@@ -1589,21 +1587,21 @@
     <t>mano isso me lembra muito o coringa no filme https://t.co/ni4nrbk9hr</t>
   </si>
   <si>
+    <t>rt @herois_da_tv: space jam 2 - [rumor] imagens supostamente vazadas mostram coringa, máskara e pennywise como os vilões do filme. https://…</t>
+  </si>
+  <si>
+    <t>pq isso me lembrou as primeiras cenas do filme do coringa ??? https://t.co/odl9gvqbuq</t>
+  </si>
+  <si>
+    <t>coringa é o melhor filme dos tempos sim</t>
+  </si>
+  <si>
+    <t>mano, na redação eu citei o filme do coringa igual um gênio pqp só falta eu ter feito a citação errada e tomar no cu</t>
+  </si>
+  <si>
     <t>coloquei o filme do coringa pra assistir com o meu irmão e o olho dele encheu de lágrima no começo do filme</t>
   </si>
   <si>
-    <t>pq isso me lembrou as primeiras cenas do filme do coringa ??? https://t.co/odl9gvqbuq</t>
-  </si>
-  <si>
-    <t>mano, na redação eu citei o filme do coringa igual um gênio pqp só falta eu ter feito a citação errada e tomar no cu</t>
-  </si>
-  <si>
-    <t>coringa é o melhor filme dos tempos sim</t>
-  </si>
-  <si>
-    <t>rt @herois_da_tv: space jam 2 - [rumor] imagens supostamente vazadas mostram coringa, máskara e pennywise como os vilões do filme. https://…</t>
-  </si>
-  <si>
     <t>vou olhar esse filme do coringa e ir dormir, amanhã tudo dnv 😴</t>
   </si>
   <si>
@@ -1628,19 +1626,19 @@
     <t>filme do coringa é foda demais k</t>
   </si>
   <si>
+    <t>to vendo o filme do coringa</t>
+  </si>
+  <si>
     <t>@fabianoristow pra mim foi chocante as pessoas rindo da reação do anão  no filme do  coringa enquanto ele matava o amigo palhaço em sua própria casa</t>
   </si>
   <si>
-    <t>to vendo o filme do coringa</t>
+    <t>joaquin phoenix ta tao lindo e fofo nesse filme ele mereceu o oscar mesmo por sair de um lindo fofo pra aquela coisa feia do coringa</t>
   </si>
   <si>
     <t>rt @arthurscoelho: título: joker
 título em português: coringa
 ano de lançamento: 2020
 sinopse: esse filme conta a história do surgimento do…</t>
-  </si>
-  <si>
-    <t>joaquin phoenix ta tao lindo e fofo nesse filme ele mereceu o oscar mesmo por sair de um lindo fofo pra aquela coisa feia do coringa</t>
   </si>
   <si>
     <t>rt @radioproletrio: jessé reproduz em palavras o que pensamos
@@ -1718,20 +1716,20 @@
     <t>ele só tava trabalhando :( lembrei da cena do filme do coringa https://t.co/glxumxu9io</t>
   </si>
   <si>
+    <t>space jam 2 | coringa pode estar no filme, indica rumor https://t.co/gybvpvyo3j https://t.co/nzi55vku2t</t>
+  </si>
+  <si>
     <t>tem gente rindo disso. alguém trampando suave e leva um soco desses...
 será que assistiram o filme do coringa? https://t.co/ectvdzulgf</t>
   </si>
   <si>
-    <t>space jam 2 | coringa pode estar no filme, indica rumor https://t.co/gybvpvyo3j https://t.co/nzi55vku2t</t>
-  </si>
-  <si>
-    <t>que filme foda, coringa!</t>
-  </si>
-  <si>
     <t>@ojudeuateu sim, por isso que o filme do coringa cai como um bootleg de taxi driver em que eles vitimizaram totalmente um vilão. 
 agora clube da luta realmente não se faz favores com o brad pitt sendo escalado ali, não tem como a pessoa não querer ser o cara.</t>
   </si>
   <si>
+    <t>que filme foda, coringa!</t>
+  </si>
+  <si>
     <t>ja faz uns 4 meses que eu to navegando na internet e sempre aparece a porra do coringa meu deus ja deu porra esquece esse filme, é legal mas ja deu eu nao aguento mais tem a foto desse cara em cada canto da internet</t>
   </si>
   <si>
@@ -1754,10 +1752,10 @@
     <t>se meu bairro fosse um filme o herói seria o coringa...</t>
   </si>
   <si>
+    <t>rt @portal_astro: 🎥 jj: coringa é um pouco... sim, é um filme que te faz pensar muito e considerar muitas coisas. não foi assustador,  apen…</t>
+  </si>
+  <si>
     <t>só queria coragem p terminar de ver o filme do coringa</t>
-  </si>
-  <si>
-    <t>rt @portal_astro: 🎥 jj: coringa é um pouco... sim, é um filme que te faz pensar muito e considerar muitas coisas. não foi assustador,  apen…</t>
   </si>
   <si>
     <t>você seria meu amigo?
@@ -1838,10 +1836,10 @@
     <t>na são silvestre da vida,se meu bairro fosse um filme,o herói seria o coringa</t>
   </si>
   <si>
+    <t>baixei o filme do coringa p ver mais tarde</t>
+  </si>
+  <si>
     <t>indo assistir o novo filme do james bond, a muie do coringa hahahahah https://t.co/qpdfvooswb</t>
-  </si>
-  <si>
-    <t>baixei o filme do coringa p ver mais tarde</t>
   </si>
   <si>
     <t>ok coringa é o melhor filme da vida</t>
@@ -1881,10 +1879,10 @@
     <t>@comoelesestao namoral, esse cara devia fazer o papel do coringa no novo filme do batman</t>
   </si>
   <si>
+    <t>só eu ainda não assisti o novo filme do coringa</t>
+  </si>
+  <si>
     <t>@mpmorales @fabianoristow cabine de coringa... a expectativa do filme tava alta e eu consegui me surpreender e ficar extasiado com o resultado do filme.. eu olhava pra minha amiga do lado e falava “eu não tô acreditando que estamos vendo isso”... foi uma sensação mto louca que não esqueço!</t>
-  </si>
-  <si>
-    <t>só eu ainda não assisti o novo filme do coringa</t>
   </si>
   <si>
     <t>@mariacspaz19 dps desse filme eu acho que o coringa que é a mulher da arlequina</t>
@@ -2269,7 +2267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+  <dimension ref="A1:A401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3780,6 +3778,506 @@
         <v>300</v>
       </c>
     </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3787,7 +4285,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A251"/>
+  <dimension ref="A1:A150"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3795,1257 +4293,752 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>328</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>333</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>335</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>337</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>338</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>339</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>341</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>343</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>344</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>345</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>346</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>348</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>349</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>350</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>351</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>353</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>354</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>356</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>359</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>360</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>361</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>362</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>363</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>364</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>365</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>366</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>367</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>368</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>369</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>370</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>371</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>372</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>373</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>374</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>375</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>376</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>377</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>378</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>379</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>380</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>381</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>382</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>383</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>384</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>385</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>387</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>388</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>389</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>390</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>391</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>392</v>
+        <v>492</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>394</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>395</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>396</v>
+        <v>496</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>397</v>
+        <v>497</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>398</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>399</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>401</v>
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>402</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>403</v>
+        <v>503</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>404</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>405</v>
+        <v>505</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>406</v>
+        <v>506</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>407</v>
+        <v>507</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>408</v>
+        <v>508</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>409</v>
+        <v>509</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>410</v>
+        <v>510</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>411</v>
+        <v>511</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>412</v>
+        <v>512</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>413</v>
+        <v>513</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>414</v>
+        <v>514</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>415</v>
+        <v>515</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>416</v>
+        <v>516</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>417</v>
+        <v>517</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>418</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>419</v>
+        <v>519</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>420</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>421</v>
+        <v>521</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>422</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>423</v>
+        <v>523</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>424</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>425</v>
+        <v>525</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>426</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>427</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>428</v>
+        <v>528</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>429</v>
+        <v>529</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>430</v>
+        <v>530</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>431</v>
+        <v>531</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>432</v>
+        <v>532</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>433</v>
+        <v>533</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>434</v>
+        <v>534</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>435</v>
+        <v>535</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>436</v>
+        <v>536</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>437</v>
+        <v>537</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>438</v>
+        <v>538</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>439</v>
+        <v>539</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>440</v>
+        <v>540</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>441</v>
+        <v>541</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>442</v>
+        <v>542</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>443</v>
+        <v>543</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>444</v>
+        <v>544</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>445</v>
+        <v>545</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>446</v>
+        <v>546</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>447</v>
+        <v>547</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>448</v>
+        <v>548</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>449</v>
+        <v>549</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>551</v>
       </c>
     </row>
   </sheetData>
